--- a/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Downloads/ГЗ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84191CFC-5647-294F-B661-34E6DA60E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F0EE1-9DF5-2B42-AA6B-D0A9C3769FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15900" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -115,12 +115,14 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,6 +291,27 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -309,27 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,113 +736,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="23"/>
+      <c r="X7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16" t="s">
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16" t="s">
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="23"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -921,16 +923,16 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5">
         <v>432392.09</v>
       </c>
@@ -1011,16 +1013,16 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16">
         <v>335.17</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="6">
         <v>0</v>
       </c>
@@ -1101,16 +1103,16 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="5">
         <v>1939.72</v>
       </c>
@@ -1191,16 +1193,16 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16">
         <v>628.28</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="6">
         <v>0</v>
       </c>
@@ -1281,16 +1283,16 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16">
         <v>409.92</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7">
         <v>409.92</v>
       </c>
@@ -1371,16 +1373,16 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5">
         <v>233326.49</v>
       </c>
@@ -1461,16 +1463,16 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="5">
         <v>11973.09</v>
       </c>
@@ -1551,16 +1553,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1642,22 +1644,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1674,6 +1660,22 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F0EE1-9DF5-2B42-AA6B-D0A9C3769FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC0F3D-9271-7747-8843-0C9F6A6B9A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -121,6 +121,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -262,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,6 +296,27 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -303,35 +329,26 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +695,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -689,7 +706,7 @@
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="0.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
     <col min="8" max="17" width="12.75" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.75" style="1" customWidth="1"/>
@@ -736,113 +753,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="16"/>
+      <c r="V7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23" t="s">
+      <c r="W7" s="16"/>
+      <c r="X7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23" t="s">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="16"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -923,18 +940,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="5">
-        <v>432392.09</v>
+      <c r="F9" s="20"/>
+      <c r="G9" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1013,18 +1030,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21">
         <v>335.17</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="6">
-        <v>0</v>
+      <c r="F10" s="21"/>
+      <c r="G10" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1103,18 +1120,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="5">
-        <v>1939.72</v>
+      <c r="F11" s="20"/>
+      <c r="G11" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1193,18 +1210,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21">
         <v>628.28</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="6">
-        <v>0</v>
+      <c r="F12" s="21"/>
+      <c r="G12" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1283,18 +1300,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21">
         <v>409.92</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="7">
-        <v>409.92</v>
+      <c r="F13" s="21"/>
+      <c r="G13" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1373,18 +1390,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="5">
-        <v>233326.49</v>
+      <c r="F14" s="20"/>
+      <c r="G14" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1463,18 +1480,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="5">
-        <v>11973.09</v>
+      <c r="F15" s="20"/>
+      <c r="G15" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1553,16 +1570,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1644,6 +1661,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1660,22 +1693,6 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC0F3D-9271-7747-8843-0C9F6A6B9A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E9A58-CCA7-3F4E-B201-0DAAB169C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>АО "ГЗ "Пульсар"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,6 +299,33 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -316,39 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +692,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -753,113 +750,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16" t="s">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16" t="s">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16" t="s">
+      <c r="U7" s="25"/>
+      <c r="V7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="25"/>
+      <c r="X7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16" t="s">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16" t="s">
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="25"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -940,18 +937,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="25" t="s">
-        <v>25</v>
+      <c r="F9" s="14"/>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1030,18 +1027,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="17">
         <v>335.17</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="26" t="s">
-        <v>25</v>
+      <c r="F10" s="17"/>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1120,18 +1117,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25" t="s">
-        <v>25</v>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1210,18 +1207,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="17">
         <v>628.28</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="26" t="s">
-        <v>25</v>
+      <c r="F12" s="17"/>
+      <c r="G12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1300,18 +1297,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="17">
         <v>409.92</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="27" t="s">
-        <v>25</v>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1390,18 +1387,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25" t="s">
-        <v>25</v>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1480,18 +1477,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="25" t="s">
-        <v>25</v>
+      <c r="F15" s="14"/>
+      <c r="G15" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1570,16 +1567,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1661,22 +1658,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1693,6 +1674,22 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E9A58-CCA7-3F4E-B201-0DAAB169C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11819FE0-C09A-CA40-930A-E27A82ADACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -98,10 +98,46 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>АО "ГЗ "Пульсар"</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "</t>
+    <t>АО "ГЗ "Пульсар" 1</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 2</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 3</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 4</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 5</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 6</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 7</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 1"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 2"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 3"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 4"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 5"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 6"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 7"</t>
   </si>
 </sst>
 </file>
@@ -302,16 +338,43 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,33 +382,6 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +728,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -750,113 +786,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="25" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25" t="s">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="17"/>
+      <c r="T7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25" t="s">
+      <c r="U7" s="17"/>
+      <c r="V7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25" t="s">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25" t="s">
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25" t="s">
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25" t="s">
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="25"/>
+      <c r="AE7" s="17"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -940,15 +976,15 @@
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1027,18 +1063,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17">
+      <c r="A10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="23">
         <v>335.17</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1117,18 +1153,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="A11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1207,18 +1243,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="17">
+      <c r="A12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23">
         <v>628.28</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1297,18 +1333,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17">
+      <c r="A13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23">
         <v>409.92</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1387,18 +1423,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
+      <c r="A14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1477,18 +1513,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14">
+      <c r="A15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1567,16 +1603,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1658,6 +1694,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1674,22 +1726,6 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2021/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11819FE0-C09A-CA40-930A-E27A82ADACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDDDD1A-CEAD-034E-8DFB-DCC39D68C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -98,27 +98,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>АО "ГЗ "Пульсар" 1</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 2</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 3</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 4</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 5</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 6</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 7</t>
-  </si>
-  <si>
     <t>АО "ГЗ 1"</t>
   </si>
   <si>
@@ -138,6 +117,9 @@
   </si>
   <si>
     <t>АО "ГЗ 7"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар"</t>
   </si>
 </sst>
 </file>
@@ -183,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -302,11 +284,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFACC8BD"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFACC8BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,6 +357,27 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -359,29 +399,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +753,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -786,113 +811,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17" t="s">
+      <c r="W7" s="24"/>
+      <c r="X7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17" t="s">
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17" t="s">
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17" t="s">
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="24"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -973,18 +998,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
+        <v>703021.84</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21">
-        <v>703021.84</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1063,18 +1088,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16">
+        <v>335.17</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23">
-        <v>335.17</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1153,18 +1178,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="13">
+        <v>4697.4399999999996</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21">
-        <v>4697.4399999999996</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1243,18 +1268,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="16">
+        <v>628.28</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23">
-        <v>628.28</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1333,18 +1358,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="16">
+        <v>409.92</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23">
-        <v>409.92</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1423,18 +1448,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="13">
+        <v>303880.71000000002</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21">
-        <v>303880.71000000002</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1513,18 +1538,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="13">
+        <v>15181.63</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21">
-        <v>15181.63</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1603,16 +1628,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1694,22 +1719,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1726,6 +1735,22 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
